--- a/LVS.xlsx
+++ b/LVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB81613-B6D5-4CBF-BB58-9CBB4FB42D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C77E6EF-0169-4629-BB71-3E8F70E0D942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{4CC9583F-B2BD-4FAF-B4F9-620EC57B90F4}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{4CC9583F-B2BD-4FAF-B4F9-620EC57B90F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,12 +196,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -210,6 +208,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,16 +245,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,33 +593,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A327A74-BC2C-4E4B-9334-1283C5EBBBEE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>51.15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="3">
@@ -616,11 +630,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3">
@@ -628,11 +642,11 @@
         <v>37085.089004699999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3">
@@ -642,8 +656,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="3">
@@ -654,8 +668,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3">
@@ -672,25 +686,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288AEFC3-12AB-47C8-A682-E8A2E1A511AD}">
   <dimension ref="A1:AJ426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -716,8 +731,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3"/>
@@ -759,8 +774,8 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
@@ -802,8 +817,8 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3"/>
@@ -845,8 +860,8 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3"/>
@@ -888,8 +903,8 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
@@ -931,7 +946,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -994,8 +1009,8 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="3"/>
@@ -1037,8 +1052,8 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3"/>
@@ -1080,8 +1095,8 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3"/>
@@ -1123,8 +1138,8 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="3"/>
@@ -1166,8 +1181,8 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3"/>
@@ -1209,8 +1224,8 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3">
@@ -1272,8 +1287,8 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3"/>
@@ -1315,8 +1330,8 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3"/>
@@ -1358,8 +1373,8 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3"/>
@@ -1401,8 +1416,8 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3"/>
@@ -1444,8 +1459,8 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
@@ -1487,8 +1502,8 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3"/>
@@ -1532,8 +1547,8 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="3"/>
@@ -1575,8 +1590,8 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="3">
@@ -1638,8 +1653,8 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="3"/>
@@ -1681,8 +1696,8 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="3"/>
@@ -1724,8 +1739,8 @@
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3"/>
@@ -1767,8 +1782,8 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="3">
@@ -1830,8 +1845,8 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3"/>
@@ -1873,8 +1888,8 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="3">
@@ -1936,8 +1951,8 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="3"/>
@@ -1979,8 +1994,8 @@
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="3">
@@ -2042,7 +2057,7 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2078,35 +2093,35 @@
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="e">
+      <c r="C32" s="7" t="e">
         <f t="shared" ref="C32:H32" si="12">+C30/C33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="2" t="e">
+      <c r="D32" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="7">
         <f t="shared" si="12"/>
         <v>0.49738219895287961</v>
       </c>
-      <c r="F32" s="2" t="e">
+      <c r="F32" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="2" t="e">
+      <c r="G32" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="2" t="e">
+      <c r="H32" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="7">
         <f>+I30/I33</f>
         <v>0.37671232876712329</v>
       </c>
@@ -2138,8 +2153,8 @@
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3"/>
@@ -2181,7 +2196,7 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2217,7 +2232,7 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2253,7 +2268,7 @@
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2289,7 +2304,7 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2325,7 +2340,7 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2361,7 +2376,7 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2397,7 +2412,7 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2433,7 +2448,7 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2469,7 +2484,7 @@
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2505,7 +2520,7 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2541,7 +2556,7 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2577,7 +2592,7 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2613,7 +2628,7 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2649,7 +2664,7 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2685,7 +2700,7 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2721,7 +2736,7 @@
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
     </row>
-    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2757,7 +2772,7 @@
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
     </row>
-    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2793,7 +2808,7 @@
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
     </row>
-    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2829,7 +2844,7 @@
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
     </row>
-    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2865,7 +2880,7 @@
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
     </row>
-    <row r="53" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2901,7 +2916,7 @@
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
     </row>
-    <row r="54" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2937,7 +2952,7 @@
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
     </row>
-    <row r="55" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2973,7 +2988,7 @@
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
     </row>
-    <row r="56" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3009,7 +3024,7 @@
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
     </row>
-    <row r="57" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3045,7 +3060,7 @@
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
     </row>
-    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3081,7 +3096,7 @@
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
     </row>
-    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3117,7 +3132,7 @@
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
     </row>
-    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3153,7 +3168,7 @@
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
     </row>
-    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3189,7 +3204,7 @@
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
     </row>
-    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3225,7 +3240,7 @@
       <c r="AI62" s="3"/>
       <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3261,7 +3276,7 @@
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3297,7 +3312,7 @@
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
     </row>
-    <row r="65" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3333,7 +3348,7 @@
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
     </row>
-    <row r="66" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3369,7 +3384,7 @@
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
     </row>
-    <row r="67" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3405,7 +3420,7 @@
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
     </row>
-    <row r="68" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3441,7 +3456,7 @@
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
     </row>
-    <row r="69" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3477,7 +3492,7 @@
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
     </row>
-    <row r="70" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3513,7 +3528,7 @@
       <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
     </row>
-    <row r="71" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3549,7 +3564,7 @@
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
     </row>
-    <row r="72" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3585,7 +3600,7 @@
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
     </row>
-    <row r="73" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3621,7 +3636,7 @@
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3"/>
     </row>
-    <row r="74" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3657,7 +3672,7 @@
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
     </row>
-    <row r="75" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3693,7 +3708,7 @@
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
     </row>
-    <row r="76" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3729,7 +3744,7 @@
       <c r="AI76" s="3"/>
       <c r="AJ76" s="3"/>
     </row>
-    <row r="77" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3765,7 +3780,7 @@
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
     </row>
-    <row r="78" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3801,7 +3816,7 @@
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
     </row>
-    <row r="79" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3837,7 +3852,7 @@
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
     </row>
-    <row r="80" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3873,7 +3888,7 @@
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
     </row>
-    <row r="81" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3909,7 +3924,7 @@
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3"/>
     </row>
-    <row r="82" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3945,7 +3960,7 @@
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
     </row>
-    <row r="83" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3981,7 +3996,7 @@
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
     </row>
-    <row r="84" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4017,7 +4032,7 @@
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
     </row>
-    <row r="85" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4053,7 +4068,7 @@
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
     </row>
-    <row r="86" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4089,7 +4104,7 @@
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
     </row>
-    <row r="87" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4125,7 +4140,7 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
     </row>
-    <row r="88" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4161,7 +4176,7 @@
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
     </row>
-    <row r="89" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4197,7 +4212,7 @@
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
     </row>
-    <row r="90" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4233,7 +4248,7 @@
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
     </row>
-    <row r="91" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4269,7 +4284,7 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4305,7 +4320,7 @@
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
     </row>
-    <row r="93" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4341,7 +4356,7 @@
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4377,7 +4392,7 @@
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
     </row>
-    <row r="95" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4413,7 +4428,7 @@
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4449,7 +4464,7 @@
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4485,7 +4500,7 @@
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
     </row>
-    <row r="98" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4521,7 +4536,7 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
     </row>
-    <row r="99" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4557,7 +4572,7 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
     </row>
-    <row r="100" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4593,7 +4608,7 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4629,7 +4644,7 @@
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
     </row>
-    <row r="102" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4665,7 +4680,7 @@
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
     </row>
-    <row r="103" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4701,7 +4716,7 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
     </row>
-    <row r="104" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4737,7 +4752,7 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
     </row>
-    <row r="105" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4773,7 +4788,7 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
     </row>
-    <row r="106" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4809,7 +4824,7 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
     </row>
-    <row r="107" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4845,7 +4860,7 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
     </row>
-    <row r="108" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4881,7 +4896,7 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
     </row>
-    <row r="109" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4917,7 +4932,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4953,7 +4968,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4989,7 +5004,7 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
     </row>
-    <row r="112" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5025,7 +5040,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5061,7 +5076,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5097,7 +5112,7 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
     </row>
-    <row r="115" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5133,7 +5148,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5169,7 +5184,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5205,7 +5220,7 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
     </row>
-    <row r="118" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5241,7 +5256,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
     </row>
-    <row r="119" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5277,7 +5292,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5313,7 +5328,7 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5349,7 +5364,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5385,7 +5400,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5421,7 +5436,7 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5457,7 +5472,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5493,7 +5508,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5529,7 +5544,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5565,7 +5580,7 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5601,7 +5616,7 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5637,7 +5652,7 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="3"/>
     </row>
-    <row r="130" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5673,7 +5688,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5709,7 +5724,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5745,7 +5760,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5781,7 +5796,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5817,7 +5832,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5853,7 +5868,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5889,7 +5904,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5925,7 +5940,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5961,7 +5976,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5997,7 +6012,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6033,7 +6048,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6069,7 +6084,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6105,7 +6120,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6141,7 +6156,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6177,7 +6192,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6213,7 +6228,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6249,7 +6264,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6285,7 +6300,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6321,7 +6336,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6357,7 +6372,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6393,7 +6408,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6429,7 +6444,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
     </row>
-    <row r="152" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6465,7 +6480,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6501,7 +6516,7 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="3"/>
     </row>
-    <row r="154" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6537,7 +6552,7 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
     </row>
-    <row r="155" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6573,7 +6588,7 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="3"/>
     </row>
-    <row r="156" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6609,7 +6624,7 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="3"/>
     </row>
-    <row r="157" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6645,7 +6660,7 @@
       <c r="AI157" s="3"/>
       <c r="AJ157" s="3"/>
     </row>
-    <row r="158" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6681,7 +6696,7 @@
       <c r="AI158" s="3"/>
       <c r="AJ158" s="3"/>
     </row>
-    <row r="159" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6717,7 +6732,7 @@
       <c r="AI159" s="3"/>
       <c r="AJ159" s="3"/>
     </row>
-    <row r="160" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6753,7 +6768,7 @@
       <c r="AI160" s="3"/>
       <c r="AJ160" s="3"/>
     </row>
-    <row r="161" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6789,7 +6804,7 @@
       <c r="AI161" s="3"/>
       <c r="AJ161" s="3"/>
     </row>
-    <row r="162" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6825,7 +6840,7 @@
       <c r="AI162" s="3"/>
       <c r="AJ162" s="3"/>
     </row>
-    <row r="163" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6861,7 +6876,7 @@
       <c r="AI163" s="3"/>
       <c r="AJ163" s="3"/>
     </row>
-    <row r="164" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6897,7 +6912,7 @@
       <c r="AI164" s="3"/>
       <c r="AJ164" s="3"/>
     </row>
-    <row r="165" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6933,7 +6948,7 @@
       <c r="AI165" s="3"/>
       <c r="AJ165" s="3"/>
     </row>
-    <row r="166" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6969,7 +6984,7 @@
       <c r="AI166" s="3"/>
       <c r="AJ166" s="3"/>
     </row>
-    <row r="167" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7005,7 +7020,7 @@
       <c r="AI167" s="3"/>
       <c r="AJ167" s="3"/>
     </row>
-    <row r="168" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7041,7 +7056,7 @@
       <c r="AI168" s="3"/>
       <c r="AJ168" s="3"/>
     </row>
-    <row r="169" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7077,7 +7092,7 @@
       <c r="AI169" s="3"/>
       <c r="AJ169" s="3"/>
     </row>
-    <row r="170" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7113,7 +7128,7 @@
       <c r="AI170" s="3"/>
       <c r="AJ170" s="3"/>
     </row>
-    <row r="171" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7149,7 +7164,7 @@
       <c r="AI171" s="3"/>
       <c r="AJ171" s="3"/>
     </row>
-    <row r="172" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7185,7 +7200,7 @@
       <c r="AI172" s="3"/>
       <c r="AJ172" s="3"/>
     </row>
-    <row r="173" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7221,7 +7236,7 @@
       <c r="AI173" s="3"/>
       <c r="AJ173" s="3"/>
     </row>
-    <row r="174" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7257,7 +7272,7 @@
       <c r="AI174" s="3"/>
       <c r="AJ174" s="3"/>
     </row>
-    <row r="175" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7293,7 +7308,7 @@
       <c r="AI175" s="3"/>
       <c r="AJ175" s="3"/>
     </row>
-    <row r="176" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7329,7 +7344,7 @@
       <c r="AI176" s="3"/>
       <c r="AJ176" s="3"/>
     </row>
-    <row r="177" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7365,7 +7380,7 @@
       <c r="AI177" s="3"/>
       <c r="AJ177" s="3"/>
     </row>
-    <row r="178" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7401,7 +7416,7 @@
       <c r="AI178" s="3"/>
       <c r="AJ178" s="3"/>
     </row>
-    <row r="179" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7437,7 +7452,7 @@
       <c r="AI179" s="3"/>
       <c r="AJ179" s="3"/>
     </row>
-    <row r="180" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7473,7 +7488,7 @@
       <c r="AI180" s="3"/>
       <c r="AJ180" s="3"/>
     </row>
-    <row r="181" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7509,7 +7524,7 @@
       <c r="AI181" s="3"/>
       <c r="AJ181" s="3"/>
     </row>
-    <row r="182" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7545,7 +7560,7 @@
       <c r="AI182" s="3"/>
       <c r="AJ182" s="3"/>
     </row>
-    <row r="183" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7581,7 +7596,7 @@
       <c r="AI183" s="3"/>
       <c r="AJ183" s="3"/>
     </row>
-    <row r="184" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7617,7 +7632,7 @@
       <c r="AI184" s="3"/>
       <c r="AJ184" s="3"/>
     </row>
-    <row r="185" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7653,7 +7668,7 @@
       <c r="AI185" s="3"/>
       <c r="AJ185" s="3"/>
     </row>
-    <row r="186" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7689,7 +7704,7 @@
       <c r="AI186" s="3"/>
       <c r="AJ186" s="3"/>
     </row>
-    <row r="187" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7725,7 +7740,7 @@
       <c r="AI187" s="3"/>
       <c r="AJ187" s="3"/>
     </row>
-    <row r="188" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7761,7 +7776,7 @@
       <c r="AI188" s="3"/>
       <c r="AJ188" s="3"/>
     </row>
-    <row r="189" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7797,7 +7812,7 @@
       <c r="AI189" s="3"/>
       <c r="AJ189" s="3"/>
     </row>
-    <row r="190" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7833,7 +7848,7 @@
       <c r="AI190" s="3"/>
       <c r="AJ190" s="3"/>
     </row>
-    <row r="191" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7869,7 +7884,7 @@
       <c r="AI191" s="3"/>
       <c r="AJ191" s="3"/>
     </row>
-    <row r="192" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7905,7 +7920,7 @@
       <c r="AI192" s="3"/>
       <c r="AJ192" s="3"/>
     </row>
-    <row r="193" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7941,7 +7956,7 @@
       <c r="AI193" s="3"/>
       <c r="AJ193" s="3"/>
     </row>
-    <row r="194" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -7977,7 +7992,7 @@
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
     </row>
-    <row r="195" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8013,7 +8028,7 @@
       <c r="AI195" s="3"/>
       <c r="AJ195" s="3"/>
     </row>
-    <row r="196" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8049,7 +8064,7 @@
       <c r="AI196" s="3"/>
       <c r="AJ196" s="3"/>
     </row>
-    <row r="197" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8085,7 +8100,7 @@
       <c r="AI197" s="3"/>
       <c r="AJ197" s="3"/>
     </row>
-    <row r="198" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8121,7 +8136,7 @@
       <c r="AI198" s="3"/>
       <c r="AJ198" s="3"/>
     </row>
-    <row r="199" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8157,7 +8172,7 @@
       <c r="AI199" s="3"/>
       <c r="AJ199" s="3"/>
     </row>
-    <row r="200" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8193,7 +8208,7 @@
       <c r="AI200" s="3"/>
       <c r="AJ200" s="3"/>
     </row>
-    <row r="201" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8229,7 +8244,7 @@
       <c r="AI201" s="3"/>
       <c r="AJ201" s="3"/>
     </row>
-    <row r="202" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8265,7 +8280,7 @@
       <c r="AI202" s="3"/>
       <c r="AJ202" s="3"/>
     </row>
-    <row r="203" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8301,7 +8316,7 @@
       <c r="AI203" s="3"/>
       <c r="AJ203" s="3"/>
     </row>
-    <row r="204" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8337,7 +8352,7 @@
       <c r="AI204" s="3"/>
       <c r="AJ204" s="3"/>
     </row>
-    <row r="205" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8373,7 +8388,7 @@
       <c r="AI205" s="3"/>
       <c r="AJ205" s="3"/>
     </row>
-    <row r="206" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8409,7 +8424,7 @@
       <c r="AI206" s="3"/>
       <c r="AJ206" s="3"/>
     </row>
-    <row r="207" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8445,7 +8460,7 @@
       <c r="AI207" s="3"/>
       <c r="AJ207" s="3"/>
     </row>
-    <row r="208" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8481,7 +8496,7 @@
       <c r="AI208" s="3"/>
       <c r="AJ208" s="3"/>
     </row>
-    <row r="209" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8517,7 +8532,7 @@
       <c r="AI209" s="3"/>
       <c r="AJ209" s="3"/>
     </row>
-    <row r="210" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8553,7 +8568,7 @@
       <c r="AI210" s="3"/>
       <c r="AJ210" s="3"/>
     </row>
-    <row r="211" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -8589,7 +8604,7 @@
       <c r="AI211" s="3"/>
       <c r="AJ211" s="3"/>
     </row>
-    <row r="212" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -8625,7 +8640,7 @@
       <c r="AI212" s="3"/>
       <c r="AJ212" s="3"/>
     </row>
-    <row r="213" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -8661,7 +8676,7 @@
       <c r="AI213" s="3"/>
       <c r="AJ213" s="3"/>
     </row>
-    <row r="214" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -8697,7 +8712,7 @@
       <c r="AI214" s="3"/>
       <c r="AJ214" s="3"/>
     </row>
-    <row r="215" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -8733,7 +8748,7 @@
       <c r="AI215" s="3"/>
       <c r="AJ215" s="3"/>
     </row>
-    <row r="216" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -8769,7 +8784,7 @@
       <c r="AI216" s="3"/>
       <c r="AJ216" s="3"/>
     </row>
-    <row r="217" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -8805,7 +8820,7 @@
       <c r="AI217" s="3"/>
       <c r="AJ217" s="3"/>
     </row>
-    <row r="218" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -8841,7 +8856,7 @@
       <c r="AI218" s="3"/>
       <c r="AJ218" s="3"/>
     </row>
-    <row r="219" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -8877,7 +8892,7 @@
       <c r="AI219" s="3"/>
       <c r="AJ219" s="3"/>
     </row>
-    <row r="220" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -8913,7 +8928,7 @@
       <c r="AI220" s="3"/>
       <c r="AJ220" s="3"/>
     </row>
-    <row r="221" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -8949,7 +8964,7 @@
       <c r="AI221" s="3"/>
       <c r="AJ221" s="3"/>
     </row>
-    <row r="222" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -8985,7 +9000,7 @@
       <c r="AI222" s="3"/>
       <c r="AJ222" s="3"/>
     </row>
-    <row r="223" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9021,7 +9036,7 @@
       <c r="AI223" s="3"/>
       <c r="AJ223" s="3"/>
     </row>
-    <row r="224" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9057,7 +9072,7 @@
       <c r="AI224" s="3"/>
       <c r="AJ224" s="3"/>
     </row>
-    <row r="225" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9093,7 +9108,7 @@
       <c r="AI225" s="3"/>
       <c r="AJ225" s="3"/>
     </row>
-    <row r="226" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9129,7 +9144,7 @@
       <c r="AI226" s="3"/>
       <c r="AJ226" s="3"/>
     </row>
-    <row r="227" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9165,7 +9180,7 @@
       <c r="AI227" s="3"/>
       <c r="AJ227" s="3"/>
     </row>
-    <row r="228" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9201,7 +9216,7 @@
       <c r="AI228" s="3"/>
       <c r="AJ228" s="3"/>
     </row>
-    <row r="229" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9237,7 +9252,7 @@
       <c r="AI229" s="3"/>
       <c r="AJ229" s="3"/>
     </row>
-    <row r="230" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9273,7 +9288,7 @@
       <c r="AI230" s="3"/>
       <c r="AJ230" s="3"/>
     </row>
-    <row r="231" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9309,7 +9324,7 @@
       <c r="AI231" s="3"/>
       <c r="AJ231" s="3"/>
     </row>
-    <row r="232" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9345,7 +9360,7 @@
       <c r="AI232" s="3"/>
       <c r="AJ232" s="3"/>
     </row>
-    <row r="233" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9381,7 +9396,7 @@
       <c r="AI233" s="3"/>
       <c r="AJ233" s="3"/>
     </row>
-    <row r="234" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9417,7 +9432,7 @@
       <c r="AI234" s="3"/>
       <c r="AJ234" s="3"/>
     </row>
-    <row r="235" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -9453,7 +9468,7 @@
       <c r="AI235" s="3"/>
       <c r="AJ235" s="3"/>
     </row>
-    <row r="236" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9489,7 +9504,7 @@
       <c r="AI236" s="3"/>
       <c r="AJ236" s="3"/>
     </row>
-    <row r="237" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -9525,7 +9540,7 @@
       <c r="AI237" s="3"/>
       <c r="AJ237" s="3"/>
     </row>
-    <row r="238" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9561,7 +9576,7 @@
       <c r="AI238" s="3"/>
       <c r="AJ238" s="3"/>
     </row>
-    <row r="239" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9597,7 +9612,7 @@
       <c r="AI239" s="3"/>
       <c r="AJ239" s="3"/>
     </row>
-    <row r="240" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -9633,7 +9648,7 @@
       <c r="AI240" s="3"/>
       <c r="AJ240" s="3"/>
     </row>
-    <row r="241" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9669,7 +9684,7 @@
       <c r="AI241" s="3"/>
       <c r="AJ241" s="3"/>
     </row>
-    <row r="242" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -9705,7 +9720,7 @@
       <c r="AI242" s="3"/>
       <c r="AJ242" s="3"/>
     </row>
-    <row r="243" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -9741,7 +9756,7 @@
       <c r="AI243" s="3"/>
       <c r="AJ243" s="3"/>
     </row>
-    <row r="244" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -9777,7 +9792,7 @@
       <c r="AI244" s="3"/>
       <c r="AJ244" s="3"/>
     </row>
-    <row r="245" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -9813,7 +9828,7 @@
       <c r="AI245" s="3"/>
       <c r="AJ245" s="3"/>
     </row>
-    <row r="246" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -9849,7 +9864,7 @@
       <c r="AI246" s="3"/>
       <c r="AJ246" s="3"/>
     </row>
-    <row r="247" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -9885,7 +9900,7 @@
       <c r="AI247" s="3"/>
       <c r="AJ247" s="3"/>
     </row>
-    <row r="248" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -9921,7 +9936,7 @@
       <c r="AI248" s="3"/>
       <c r="AJ248" s="3"/>
     </row>
-    <row r="249" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -9957,7 +9972,7 @@
       <c r="AI249" s="3"/>
       <c r="AJ249" s="3"/>
     </row>
-    <row r="250" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -9993,7 +10008,7 @@
       <c r="AI250" s="3"/>
       <c r="AJ250" s="3"/>
     </row>
-    <row r="251" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10029,7 +10044,7 @@
       <c r="AI251" s="3"/>
       <c r="AJ251" s="3"/>
     </row>
-    <row r="252" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10065,7 +10080,7 @@
       <c r="AI252" s="3"/>
       <c r="AJ252" s="3"/>
     </row>
-    <row r="253" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10101,7 +10116,7 @@
       <c r="AI253" s="3"/>
       <c r="AJ253" s="3"/>
     </row>
-    <row r="254" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10137,7 +10152,7 @@
       <c r="AI254" s="3"/>
       <c r="AJ254" s="3"/>
     </row>
-    <row r="255" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -10173,7 +10188,7 @@
       <c r="AI255" s="3"/>
       <c r="AJ255" s="3"/>
     </row>
-    <row r="256" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10209,7 +10224,7 @@
       <c r="AI256" s="3"/>
       <c r="AJ256" s="3"/>
     </row>
-    <row r="257" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10245,7 +10260,7 @@
       <c r="AI257" s="3"/>
       <c r="AJ257" s="3"/>
     </row>
-    <row r="258" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10281,7 +10296,7 @@
       <c r="AI258" s="3"/>
       <c r="AJ258" s="3"/>
     </row>
-    <row r="259" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10317,7 +10332,7 @@
       <c r="AI259" s="3"/>
       <c r="AJ259" s="3"/>
     </row>
-    <row r="260" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -10353,7 +10368,7 @@
       <c r="AI260" s="3"/>
       <c r="AJ260" s="3"/>
     </row>
-    <row r="261" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -10389,7 +10404,7 @@
       <c r="AI261" s="3"/>
       <c r="AJ261" s="3"/>
     </row>
-    <row r="262" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -10425,7 +10440,7 @@
       <c r="AI262" s="3"/>
       <c r="AJ262" s="3"/>
     </row>
-    <row r="263" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10461,7 +10476,7 @@
       <c r="AI263" s="3"/>
       <c r="AJ263" s="3"/>
     </row>
-    <row r="264" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10497,7 +10512,7 @@
       <c r="AI264" s="3"/>
       <c r="AJ264" s="3"/>
     </row>
-    <row r="265" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10533,7 +10548,7 @@
       <c r="AI265" s="3"/>
       <c r="AJ265" s="3"/>
     </row>
-    <row r="266" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -10569,7 +10584,7 @@
       <c r="AI266" s="3"/>
       <c r="AJ266" s="3"/>
     </row>
-    <row r="267" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10605,7 +10620,7 @@
       <c r="AI267" s="3"/>
       <c r="AJ267" s="3"/>
     </row>
-    <row r="268" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10641,7 +10656,7 @@
       <c r="AI268" s="3"/>
       <c r="AJ268" s="3"/>
     </row>
-    <row r="269" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10677,7 +10692,7 @@
       <c r="AI269" s="3"/>
       <c r="AJ269" s="3"/>
     </row>
-    <row r="270" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -10713,7 +10728,7 @@
       <c r="AI270" s="3"/>
       <c r="AJ270" s="3"/>
     </row>
-    <row r="271" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -10749,7 +10764,7 @@
       <c r="AI271" s="3"/>
       <c r="AJ271" s="3"/>
     </row>
-    <row r="272" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10785,7 +10800,7 @@
       <c r="AI272" s="3"/>
       <c r="AJ272" s="3"/>
     </row>
-    <row r="273" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10821,7 +10836,7 @@
       <c r="AI273" s="3"/>
       <c r="AJ273" s="3"/>
     </row>
-    <row r="274" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10857,7 +10872,7 @@
       <c r="AI274" s="3"/>
       <c r="AJ274" s="3"/>
     </row>
-    <row r="275" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -10893,7 +10908,7 @@
       <c r="AI275" s="3"/>
       <c r="AJ275" s="3"/>
     </row>
-    <row r="276" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -10929,7 +10944,7 @@
       <c r="AI276" s="3"/>
       <c r="AJ276" s="3"/>
     </row>
-    <row r="277" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10965,7 +10980,7 @@
       <c r="AI277" s="3"/>
       <c r="AJ277" s="3"/>
     </row>
-    <row r="278" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -11001,7 +11016,7 @@
       <c r="AI278" s="3"/>
       <c r="AJ278" s="3"/>
     </row>
-    <row r="279" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -11037,7 +11052,7 @@
       <c r="AI279" s="3"/>
       <c r="AJ279" s="3"/>
     </row>
-    <row r="280" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -11073,7 +11088,7 @@
       <c r="AI280" s="3"/>
       <c r="AJ280" s="3"/>
     </row>
-    <row r="281" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -11109,7 +11124,7 @@
       <c r="AI281" s="3"/>
       <c r="AJ281" s="3"/>
     </row>
-    <row r="282" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -11145,7 +11160,7 @@
       <c r="AI282" s="3"/>
       <c r="AJ282" s="3"/>
     </row>
-    <row r="283" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -11181,7 +11196,7 @@
       <c r="AI283" s="3"/>
       <c r="AJ283" s="3"/>
     </row>
-    <row r="284" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -11217,7 +11232,7 @@
       <c r="AI284" s="3"/>
       <c r="AJ284" s="3"/>
     </row>
-    <row r="285" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11253,7 +11268,7 @@
       <c r="AI285" s="3"/>
       <c r="AJ285" s="3"/>
     </row>
-    <row r="286" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11289,7 +11304,7 @@
       <c r="AI286" s="3"/>
       <c r="AJ286" s="3"/>
     </row>
-    <row r="287" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -11325,7 +11340,7 @@
       <c r="AI287" s="3"/>
       <c r="AJ287" s="3"/>
     </row>
-    <row r="288" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -11361,7 +11376,7 @@
       <c r="AI288" s="3"/>
       <c r="AJ288" s="3"/>
     </row>
-    <row r="289" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11397,7 +11412,7 @@
       <c r="AI289" s="3"/>
       <c r="AJ289" s="3"/>
     </row>
-    <row r="290" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11433,7 +11448,7 @@
       <c r="AI290" s="3"/>
       <c r="AJ290" s="3"/>
     </row>
-    <row r="291" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11469,7 +11484,7 @@
       <c r="AI291" s="3"/>
       <c r="AJ291" s="3"/>
     </row>
-    <row r="292" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -11505,7 +11520,7 @@
       <c r="AI292" s="3"/>
       <c r="AJ292" s="3"/>
     </row>
-    <row r="293" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -11541,7 +11556,7 @@
       <c r="AI293" s="3"/>
       <c r="AJ293" s="3"/>
     </row>
-    <row r="294" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -11577,7 +11592,7 @@
       <c r="AI294" s="3"/>
       <c r="AJ294" s="3"/>
     </row>
-    <row r="295" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -11613,7 +11628,7 @@
       <c r="AI295" s="3"/>
       <c r="AJ295" s="3"/>
     </row>
-    <row r="296" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -11649,7 +11664,7 @@
       <c r="AI296" s="3"/>
       <c r="AJ296" s="3"/>
     </row>
-    <row r="297" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -11685,7 +11700,7 @@
       <c r="AI297" s="3"/>
       <c r="AJ297" s="3"/>
     </row>
-    <row r="298" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11721,7 +11736,7 @@
       <c r="AI298" s="3"/>
       <c r="AJ298" s="3"/>
     </row>
-    <row r="299" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -11757,7 +11772,7 @@
       <c r="AI299" s="3"/>
       <c r="AJ299" s="3"/>
     </row>
-    <row r="300" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -11793,7 +11808,7 @@
       <c r="AI300" s="3"/>
       <c r="AJ300" s="3"/>
     </row>
-    <row r="301" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -11829,7 +11844,7 @@
       <c r="AI301" s="3"/>
       <c r="AJ301" s="3"/>
     </row>
-    <row r="302" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -11865,7 +11880,7 @@
       <c r="AI302" s="3"/>
       <c r="AJ302" s="3"/>
     </row>
-    <row r="303" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -11901,7 +11916,7 @@
       <c r="AI303" s="3"/>
       <c r="AJ303" s="3"/>
     </row>
-    <row r="304" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -11937,7 +11952,7 @@
       <c r="AI304" s="3"/>
       <c r="AJ304" s="3"/>
     </row>
-    <row r="305" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -11973,7 +11988,7 @@
       <c r="AI305" s="3"/>
       <c r="AJ305" s="3"/>
     </row>
-    <row r="306" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -12009,7 +12024,7 @@
       <c r="AI306" s="3"/>
       <c r="AJ306" s="3"/>
     </row>
-    <row r="307" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -12045,7 +12060,7 @@
       <c r="AI307" s="3"/>
       <c r="AJ307" s="3"/>
     </row>
-    <row r="308" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -12081,7 +12096,7 @@
       <c r="AI308" s="3"/>
       <c r="AJ308" s="3"/>
     </row>
-    <row r="309" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -12117,7 +12132,7 @@
       <c r="AI309" s="3"/>
       <c r="AJ309" s="3"/>
     </row>
-    <row r="310" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -12153,7 +12168,7 @@
       <c r="AI310" s="3"/>
       <c r="AJ310" s="3"/>
     </row>
-    <row r="311" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -12189,7 +12204,7 @@
       <c r="AI311" s="3"/>
       <c r="AJ311" s="3"/>
     </row>
-    <row r="312" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -12225,7 +12240,7 @@
       <c r="AI312" s="3"/>
       <c r="AJ312" s="3"/>
     </row>
-    <row r="313" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -12261,7 +12276,7 @@
       <c r="AI313" s="3"/>
       <c r="AJ313" s="3"/>
     </row>
-    <row r="314" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -12297,7 +12312,7 @@
       <c r="AI314" s="3"/>
       <c r="AJ314" s="3"/>
     </row>
-    <row r="315" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -12333,7 +12348,7 @@
       <c r="AI315" s="3"/>
       <c r="AJ315" s="3"/>
     </row>
-    <row r="316" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -12369,7 +12384,7 @@
       <c r="AI316" s="3"/>
       <c r="AJ316" s="3"/>
     </row>
-    <row r="317" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -12405,7 +12420,7 @@
       <c r="AI317" s="3"/>
       <c r="AJ317" s="3"/>
     </row>
-    <row r="318" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -12441,7 +12456,7 @@
       <c r="AI318" s="3"/>
       <c r="AJ318" s="3"/>
     </row>
-    <row r="319" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -12477,7 +12492,7 @@
       <c r="AI319" s="3"/>
       <c r="AJ319" s="3"/>
     </row>
-    <row r="320" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -12513,7 +12528,7 @@
       <c r="AI320" s="3"/>
       <c r="AJ320" s="3"/>
     </row>
-    <row r="321" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -12549,7 +12564,7 @@
       <c r="AI321" s="3"/>
       <c r="AJ321" s="3"/>
     </row>
-    <row r="322" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -12585,7 +12600,7 @@
       <c r="AI322" s="3"/>
       <c r="AJ322" s="3"/>
     </row>
-    <row r="323" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -12621,7 +12636,7 @@
       <c r="AI323" s="3"/>
       <c r="AJ323" s="3"/>
     </row>
-    <row r="324" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -12657,7 +12672,7 @@
       <c r="AI324" s="3"/>
       <c r="AJ324" s="3"/>
     </row>
-    <row r="325" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -12693,7 +12708,7 @@
       <c r="AI325" s="3"/>
       <c r="AJ325" s="3"/>
     </row>
-    <row r="326" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -12729,7 +12744,7 @@
       <c r="AI326" s="3"/>
       <c r="AJ326" s="3"/>
     </row>
-    <row r="327" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -12765,7 +12780,7 @@
       <c r="AI327" s="3"/>
       <c r="AJ327" s="3"/>
     </row>
-    <row r="328" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -12801,7 +12816,7 @@
       <c r="AI328" s="3"/>
       <c r="AJ328" s="3"/>
     </row>
-    <row r="329" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -12837,7 +12852,7 @@
       <c r="AI329" s="3"/>
       <c r="AJ329" s="3"/>
     </row>
-    <row r="330" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -12873,7 +12888,7 @@
       <c r="AI330" s="3"/>
       <c r="AJ330" s="3"/>
     </row>
-    <row r="331" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -12909,7 +12924,7 @@
       <c r="AI331" s="3"/>
       <c r="AJ331" s="3"/>
     </row>
-    <row r="332" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -12945,7 +12960,7 @@
       <c r="AI332" s="3"/>
       <c r="AJ332" s="3"/>
     </row>
-    <row r="333" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -12981,7 +12996,7 @@
       <c r="AI333" s="3"/>
       <c r="AJ333" s="3"/>
     </row>
-    <row r="334" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -13017,7 +13032,7 @@
       <c r="AI334" s="3"/>
       <c r="AJ334" s="3"/>
     </row>
-    <row r="335" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -13053,7 +13068,7 @@
       <c r="AI335" s="3"/>
       <c r="AJ335" s="3"/>
     </row>
-    <row r="336" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -13089,7 +13104,7 @@
       <c r="AI336" s="3"/>
       <c r="AJ336" s="3"/>
     </row>
-    <row r="337" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -13125,7 +13140,7 @@
       <c r="AI337" s="3"/>
       <c r="AJ337" s="3"/>
     </row>
-    <row r="338" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -13161,7 +13176,7 @@
       <c r="AI338" s="3"/>
       <c r="AJ338" s="3"/>
     </row>
-    <row r="339" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -13197,7 +13212,7 @@
       <c r="AI339" s="3"/>
       <c r="AJ339" s="3"/>
     </row>
-    <row r="340" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -13233,7 +13248,7 @@
       <c r="AI340" s="3"/>
       <c r="AJ340" s="3"/>
     </row>
-    <row r="341" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -13269,7 +13284,7 @@
       <c r="AI341" s="3"/>
       <c r="AJ341" s="3"/>
     </row>
-    <row r="342" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -13305,7 +13320,7 @@
       <c r="AI342" s="3"/>
       <c r="AJ342" s="3"/>
     </row>
-    <row r="343" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -13341,7 +13356,7 @@
       <c r="AI343" s="3"/>
       <c r="AJ343" s="3"/>
     </row>
-    <row r="344" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -13377,7 +13392,7 @@
       <c r="AI344" s="3"/>
       <c r="AJ344" s="3"/>
     </row>
-    <row r="345" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -13413,7 +13428,7 @@
       <c r="AI345" s="3"/>
       <c r="AJ345" s="3"/>
     </row>
-    <row r="346" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -13449,7 +13464,7 @@
       <c r="AI346" s="3"/>
       <c r="AJ346" s="3"/>
     </row>
-    <row r="347" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -13485,7 +13500,7 @@
       <c r="AI347" s="3"/>
       <c r="AJ347" s="3"/>
     </row>
-    <row r="348" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -13521,7 +13536,7 @@
       <c r="AI348" s="3"/>
       <c r="AJ348" s="3"/>
     </row>
-    <row r="349" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -13557,7 +13572,7 @@
       <c r="AI349" s="3"/>
       <c r="AJ349" s="3"/>
     </row>
-    <row r="350" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -13593,7 +13608,7 @@
       <c r="AI350" s="3"/>
       <c r="AJ350" s="3"/>
     </row>
-    <row r="351" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -13629,7 +13644,7 @@
       <c r="AI351" s="3"/>
       <c r="AJ351" s="3"/>
     </row>
-    <row r="352" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -13665,7 +13680,7 @@
       <c r="AI352" s="3"/>
       <c r="AJ352" s="3"/>
     </row>
-    <row r="353" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -13701,7 +13716,7 @@
       <c r="AI353" s="3"/>
       <c r="AJ353" s="3"/>
     </row>
-    <row r="354" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -13737,7 +13752,7 @@
       <c r="AI354" s="3"/>
       <c r="AJ354" s="3"/>
     </row>
-    <row r="355" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -13773,7 +13788,7 @@
       <c r="AI355" s="3"/>
       <c r="AJ355" s="3"/>
     </row>
-    <row r="356" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -13809,7 +13824,7 @@
       <c r="AI356" s="3"/>
       <c r="AJ356" s="3"/>
     </row>
-    <row r="357" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -13845,7 +13860,7 @@
       <c r="AI357" s="3"/>
       <c r="AJ357" s="3"/>
     </row>
-    <row r="358" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -13881,7 +13896,7 @@
       <c r="AI358" s="3"/>
       <c r="AJ358" s="3"/>
     </row>
-    <row r="359" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -13917,7 +13932,7 @@
       <c r="AI359" s="3"/>
       <c r="AJ359" s="3"/>
     </row>
-    <row r="360" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -13953,7 +13968,7 @@
       <c r="AI360" s="3"/>
       <c r="AJ360" s="3"/>
     </row>
-    <row r="361" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -13989,7 +14004,7 @@
       <c r="AI361" s="3"/>
       <c r="AJ361" s="3"/>
     </row>
-    <row r="362" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -14025,7 +14040,7 @@
       <c r="AI362" s="3"/>
       <c r="AJ362" s="3"/>
     </row>
-    <row r="363" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -14061,7 +14076,7 @@
       <c r="AI363" s="3"/>
       <c r="AJ363" s="3"/>
     </row>
-    <row r="364" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -14097,7 +14112,7 @@
       <c r="AI364" s="3"/>
       <c r="AJ364" s="3"/>
     </row>
-    <row r="365" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -14133,7 +14148,7 @@
       <c r="AI365" s="3"/>
       <c r="AJ365" s="3"/>
     </row>
-    <row r="366" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -14169,7 +14184,7 @@
       <c r="AI366" s="3"/>
       <c r="AJ366" s="3"/>
     </row>
-    <row r="367" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -14205,7 +14220,7 @@
       <c r="AI367" s="3"/>
       <c r="AJ367" s="3"/>
     </row>
-    <row r="368" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -14241,7 +14256,7 @@
       <c r="AI368" s="3"/>
       <c r="AJ368" s="3"/>
     </row>
-    <row r="369" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -14277,7 +14292,7 @@
       <c r="AI369" s="3"/>
       <c r="AJ369" s="3"/>
     </row>
-    <row r="370" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -14313,7 +14328,7 @@
       <c r="AI370" s="3"/>
       <c r="AJ370" s="3"/>
     </row>
-    <row r="371" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -14349,7 +14364,7 @@
       <c r="AI371" s="3"/>
       <c r="AJ371" s="3"/>
     </row>
-    <row r="372" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -14385,7 +14400,7 @@
       <c r="AI372" s="3"/>
       <c r="AJ372" s="3"/>
     </row>
-    <row r="373" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -14421,7 +14436,7 @@
       <c r="AI373" s="3"/>
       <c r="AJ373" s="3"/>
     </row>
-    <row r="374" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -14457,7 +14472,7 @@
       <c r="AI374" s="3"/>
       <c r="AJ374" s="3"/>
     </row>
-    <row r="375" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -14493,7 +14508,7 @@
       <c r="AI375" s="3"/>
       <c r="AJ375" s="3"/>
     </row>
-    <row r="376" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -14529,7 +14544,7 @@
       <c r="AI376" s="3"/>
       <c r="AJ376" s="3"/>
     </row>
-    <row r="377" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -14565,7 +14580,7 @@
       <c r="AI377" s="3"/>
       <c r="AJ377" s="3"/>
     </row>
-    <row r="378" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -14601,7 +14616,7 @@
       <c r="AI378" s="3"/>
       <c r="AJ378" s="3"/>
     </row>
-    <row r="379" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -14637,7 +14652,7 @@
       <c r="AI379" s="3"/>
       <c r="AJ379" s="3"/>
     </row>
-    <row r="380" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -14673,7 +14688,7 @@
       <c r="AI380" s="3"/>
       <c r="AJ380" s="3"/>
     </row>
-    <row r="381" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -14709,7 +14724,7 @@
       <c r="AI381" s="3"/>
       <c r="AJ381" s="3"/>
     </row>
-    <row r="382" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -14745,7 +14760,7 @@
       <c r="AI382" s="3"/>
       <c r="AJ382" s="3"/>
     </row>
-    <row r="383" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -14781,7 +14796,7 @@
       <c r="AI383" s="3"/>
       <c r="AJ383" s="3"/>
     </row>
-    <row r="384" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -14817,7 +14832,7 @@
       <c r="AI384" s="3"/>
       <c r="AJ384" s="3"/>
     </row>
-    <row r="385" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -14853,7 +14868,7 @@
       <c r="AI385" s="3"/>
       <c r="AJ385" s="3"/>
     </row>
-    <row r="386" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -14889,7 +14904,7 @@
       <c r="AI386" s="3"/>
       <c r="AJ386" s="3"/>
     </row>
-    <row r="387" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -14925,7 +14940,7 @@
       <c r="AI387" s="3"/>
       <c r="AJ387" s="3"/>
     </row>
-    <row r="388" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -14961,7 +14976,7 @@
       <c r="AI388" s="3"/>
       <c r="AJ388" s="3"/>
     </row>
-    <row r="389" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -14997,7 +15012,7 @@
       <c r="AI389" s="3"/>
       <c r="AJ389" s="3"/>
     </row>
-    <row r="390" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -15033,7 +15048,7 @@
       <c r="AI390" s="3"/>
       <c r="AJ390" s="3"/>
     </row>
-    <row r="391" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -15069,7 +15084,7 @@
       <c r="AI391" s="3"/>
       <c r="AJ391" s="3"/>
     </row>
-    <row r="392" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -15105,7 +15120,7 @@
       <c r="AI392" s="3"/>
       <c r="AJ392" s="3"/>
     </row>
-    <row r="393" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -15141,7 +15156,7 @@
       <c r="AI393" s="3"/>
       <c r="AJ393" s="3"/>
     </row>
-    <row r="394" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -15177,7 +15192,7 @@
       <c r="AI394" s="3"/>
       <c r="AJ394" s="3"/>
     </row>
-    <row r="395" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -15213,7 +15228,7 @@
       <c r="AI395" s="3"/>
       <c r="AJ395" s="3"/>
     </row>
-    <row r="396" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -15249,7 +15264,7 @@
       <c r="AI396" s="3"/>
       <c r="AJ396" s="3"/>
     </row>
-    <row r="397" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -15285,7 +15300,7 @@
       <c r="AI397" s="3"/>
       <c r="AJ397" s="3"/>
     </row>
-    <row r="398" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -15321,7 +15336,7 @@
       <c r="AI398" s="3"/>
       <c r="AJ398" s="3"/>
     </row>
-    <row r="399" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -15357,7 +15372,7 @@
       <c r="AI399" s="3"/>
       <c r="AJ399" s="3"/>
     </row>
-    <row r="400" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -15393,7 +15408,7 @@
       <c r="AI400" s="3"/>
       <c r="AJ400" s="3"/>
     </row>
-    <row r="401" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -15429,7 +15444,7 @@
       <c r="AI401" s="3"/>
       <c r="AJ401" s="3"/>
     </row>
-    <row r="402" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -15465,7 +15480,7 @@
       <c r="AI402" s="3"/>
       <c r="AJ402" s="3"/>
     </row>
-    <row r="403" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -15501,7 +15516,7 @@
       <c r="AI403" s="3"/>
       <c r="AJ403" s="3"/>
     </row>
-    <row r="404" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -15537,7 +15552,7 @@
       <c r="AI404" s="3"/>
       <c r="AJ404" s="3"/>
     </row>
-    <row r="405" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -15573,7 +15588,7 @@
       <c r="AI405" s="3"/>
       <c r="AJ405" s="3"/>
     </row>
-    <row r="406" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -15609,7 +15624,7 @@
       <c r="AI406" s="3"/>
       <c r="AJ406" s="3"/>
     </row>
-    <row r="407" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -15645,7 +15660,7 @@
       <c r="AI407" s="3"/>
       <c r="AJ407" s="3"/>
     </row>
-    <row r="408" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -15681,7 +15696,7 @@
       <c r="AI408" s="3"/>
       <c r="AJ408" s="3"/>
     </row>
-    <row r="409" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -15717,7 +15732,7 @@
       <c r="AI409" s="3"/>
       <c r="AJ409" s="3"/>
     </row>
-    <row r="410" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -15753,7 +15768,7 @@
       <c r="AI410" s="3"/>
       <c r="AJ410" s="3"/>
     </row>
-    <row r="411" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -15789,7 +15804,7 @@
       <c r="AI411" s="3"/>
       <c r="AJ411" s="3"/>
     </row>
-    <row r="412" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -15825,7 +15840,7 @@
       <c r="AI412" s="3"/>
       <c r="AJ412" s="3"/>
     </row>
-    <row r="413" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -15861,7 +15876,7 @@
       <c r="AI413" s="3"/>
       <c r="AJ413" s="3"/>
     </row>
-    <row r="414" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -15897,7 +15912,7 @@
       <c r="AI414" s="3"/>
       <c r="AJ414" s="3"/>
     </row>
-    <row r="415" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -15933,7 +15948,7 @@
       <c r="AI415" s="3"/>
       <c r="AJ415" s="3"/>
     </row>
-    <row r="416" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -15969,7 +15984,7 @@
       <c r="AI416" s="3"/>
       <c r="AJ416" s="3"/>
     </row>
-    <row r="417" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -16005,7 +16020,7 @@
       <c r="AI417" s="3"/>
       <c r="AJ417" s="3"/>
     </row>
-    <row r="418" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -16041,7 +16056,7 @@
       <c r="AI418" s="3"/>
       <c r="AJ418" s="3"/>
     </row>
-    <row r="419" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -16077,7 +16092,7 @@
       <c r="AI419" s="3"/>
       <c r="AJ419" s="3"/>
     </row>
-    <row r="420" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -16113,7 +16128,7 @@
       <c r="AI420" s="3"/>
       <c r="AJ420" s="3"/>
     </row>
-    <row r="421" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -16149,7 +16164,7 @@
       <c r="AI421" s="3"/>
       <c r="AJ421" s="3"/>
     </row>
-    <row r="422" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -16185,7 +16200,7 @@
       <c r="AI422" s="3"/>
       <c r="AJ422" s="3"/>
     </row>
-    <row r="423" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -16221,7 +16236,7 @@
       <c r="AI423" s="3"/>
       <c r="AJ423" s="3"/>
     </row>
-    <row r="424" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -16257,7 +16272,7 @@
       <c r="AI424" s="3"/>
       <c r="AJ424" s="3"/>
     </row>
-    <row r="425" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -16293,7 +16308,7 @@
       <c r="AI425" s="3"/>
       <c r="AJ425" s="3"/>
     </row>
-    <row r="426" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
